--- a/BOM iBesta_EVO_II.xlsx
+++ b/BOM iBesta_EVO_II.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="13620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="EVO III" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'EVO III'!$A$1:$F$47</definedName>
+  </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -102,8 +104,114 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stefan</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stefan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pro 100mm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stefan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pro 100mm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stefan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pro 100mm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stefan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+3EUR pro 100g</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
   <si>
     <t>optional</t>
   </si>
@@ -262,6 +370,33 @@
   </si>
   <si>
     <t>Kapton Tape</t>
+  </si>
+  <si>
+    <t>Heated Bed Mosfet</t>
+  </si>
+  <si>
+    <t>Isolierung Baumwolle</t>
+  </si>
+  <si>
+    <t>LCD Display</t>
+  </si>
+  <si>
+    <t>DRV 8825</t>
+  </si>
+  <si>
+    <t>Spoolholder 3D Part</t>
+  </si>
+  <si>
+    <t>BuildTak</t>
+  </si>
+  <si>
+    <t>Titan Extruder</t>
+  </si>
+  <si>
+    <t>3D Druck-Teile X-Achse</t>
+  </si>
+  <si>
+    <t>tatsächlich</t>
   </si>
 </sst>
 </file>
@@ -272,7 +407,7 @@
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +452,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -359,7 +507,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -680,9 +849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,6 +1983,1144 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:F17 A23:F67 A19:F21">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$E3="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:F22">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$E22="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:F18">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$E18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="13" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3">
+        <f>SUM(D3:D68)</f>
+        <v>501.15000000000003</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3">
+        <f>SUM(F3:F68)</f>
+        <v>379.97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3*C3</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <f>IF(E3="x","-",D3)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D41" si="0">B4*C4</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <f>IF(E4="x","-",D4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <f>IF(E5="x","-",D5)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>1.55*3.5</f>
+        <v>5.4249999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>10.85</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F7" si="1">IF(E6="x","-",D6)</f>
+        <v>10.85</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>1.55*2.9</f>
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>8.99</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <f>1.55*5</f>
+        <v>7.75</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="F8" s="1">
+        <f>IF(E8="x","-",D8)</f>
+        <v>15.5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F67" si="2">IF(E9="x","-",D9)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="1">
+        <f>B13*C13</f>
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14*C14</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15*C15</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>4.16</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>4.16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.224</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>31.9</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>27.35</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>27.35</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>14.99</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1">
+        <f>B32*C32</f>
+        <v>12</v>
+      </c>
+      <c r="F32" s="1">
+        <f>IF(E32="x","-",D32)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>3.41</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <f>1.43/10</f>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" ref="D42:D47" si="3">B42*C42</f>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <f>3/30</f>
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7.38</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="3"/>
+        <v>7.38</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:F17 A19:F21 A23:F67">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E3="x"</formula>
     </cfRule>
@@ -1831,44 +3138,5 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>